--- a/dataanalysis/data/predictions/1200/09121136_1137.xlsx
+++ b/dataanalysis/data/predictions/1200/09121136_1137.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="151">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-12</t>
   </si>
   <si>
@@ -464,12 +467,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -827,13 +824,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH73"/>
+  <dimension ref="A1:AI73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,19 +933,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0.9399999999999999</v>
@@ -966,7 +966,7 @@
         <v>80837.31</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1007,8 +1007,23 @@
       <c r="W2">
         <v>0.38</v>
       </c>
+      <c r="X2">
+        <v>20.02</v>
+      </c>
+      <c r="Y2">
+        <v>15.11</v>
+      </c>
+      <c r="Z2">
+        <v>17.68</v>
+      </c>
       <c r="AC2" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1016,22 +1031,25 @@
       <c r="AG2">
         <v>4.853453636169434</v>
       </c>
-      <c r="AH2" t="s">
-        <v>150</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300014</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>5.98</v>
@@ -1049,7 +1067,7 @@
         <v>620512.67</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1090,8 +1108,23 @@
       <c r="W3">
         <v>0.2</v>
       </c>
+      <c r="X3">
+        <v>0.15</v>
+      </c>
+      <c r="Y3">
+        <v>80.94</v>
+      </c>
+      <c r="Z3">
+        <v>6.51</v>
+      </c>
       <c r="AC3" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1099,22 +1132,25 @@
       <c r="AG3">
         <v>3.14094877243042</v>
       </c>
-      <c r="AH3" t="s">
-        <v>150</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300049</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.45</v>
@@ -1132,7 +1168,7 @@
         <v>66547.3</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K4">
         <v>12</v>
@@ -1173,8 +1209,23 @@
       <c r="W4">
         <v>-0.13</v>
       </c>
+      <c r="X4">
+        <v>20.01</v>
+      </c>
+      <c r="Y4">
+        <v>82.23999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>18.28</v>
+      </c>
       <c r="AC4" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1182,22 +1233,25 @@
       <c r="AG4">
         <v>11.53121948242188</v>
       </c>
-      <c r="AH4" t="s">
-        <v>150</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300068</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-2.09</v>
@@ -1215,7 +1269,7 @@
         <v>255455.05</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1256,8 +1310,23 @@
       <c r="W5">
         <v>-0.82</v>
       </c>
+      <c r="X5">
+        <v>-2.46</v>
+      </c>
+      <c r="Y5">
+        <v>20.73</v>
+      </c>
+      <c r="Z5">
+        <v>0.73</v>
+      </c>
       <c r="AC5" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1265,22 +1334,25 @@
       <c r="AG5">
         <v>161.6980438232422</v>
       </c>
-      <c r="AH5" t="s">
-        <v>150</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300085</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>2.53</v>
@@ -1298,7 +1370,7 @@
         <v>344563.79</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1339,8 +1411,23 @@
       <c r="W6">
         <v>0.02</v>
       </c>
+      <c r="X6">
+        <v>-1.04</v>
+      </c>
+      <c r="Y6">
+        <v>55.88</v>
+      </c>
+      <c r="Z6">
+        <v>-0.11</v>
+      </c>
       <c r="AC6" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1348,22 +1435,25 @@
       <c r="AG6">
         <v>5.604176044464111</v>
       </c>
-      <c r="AH6" t="s">
-        <v>150</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300139</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>6.38</v>
@@ -1381,7 +1471,7 @@
         <v>222659.12</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1422,8 +1512,23 @@
       <c r="W7">
         <v>-0.01</v>
       </c>
+      <c r="X7">
+        <v>-5.18</v>
+      </c>
+      <c r="Y7">
+        <v>27.4</v>
+      </c>
+      <c r="Z7">
+        <v>-3.96</v>
+      </c>
       <c r="AC7" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1431,22 +1536,25 @@
       <c r="AG7">
         <v>3.131184577941895</v>
       </c>
-      <c r="AH7" t="s">
-        <v>150</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300207</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>3.24</v>
@@ -1464,7 +1572,7 @@
         <v>236770.97</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -1505,8 +1613,23 @@
       <c r="W8">
         <v>-0.15</v>
       </c>
+      <c r="X8">
+        <v>0.42</v>
+      </c>
+      <c r="Y8">
+        <v>30.6</v>
+      </c>
+      <c r="Z8">
+        <v>5.63</v>
+      </c>
       <c r="AC8" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1514,22 +1637,25 @@
       <c r="AG8">
         <v>2.83086085319519</v>
       </c>
-      <c r="AH8" t="s">
-        <v>150</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300237</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>13.02</v>
@@ -1547,7 +1673,7 @@
         <v>94739.87</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K9">
         <v>12</v>
@@ -1588,8 +1714,23 @@
       <c r="W9">
         <v>1.28</v>
       </c>
+      <c r="X9">
+        <v>9.94</v>
+      </c>
+      <c r="Y9">
+        <v>4.1</v>
+      </c>
+      <c r="Z9">
+        <v>7.33</v>
+      </c>
       <c r="AC9" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1597,22 +1738,25 @@
       <c r="AG9">
         <v>8.362969398498535</v>
       </c>
-      <c r="AH9" t="s">
-        <v>150</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300252</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>14.72</v>
@@ -1630,7 +1774,7 @@
         <v>307250</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1671,8 +1815,23 @@
       <c r="W10">
         <v>-2</v>
       </c>
+      <c r="X10">
+        <v>-3.78</v>
+      </c>
+      <c r="Y10">
+        <v>16.36</v>
+      </c>
+      <c r="Z10">
+        <v>-0.97</v>
+      </c>
       <c r="AC10" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1680,22 +1839,25 @@
       <c r="AG10">
         <v>0.04145675897598267</v>
       </c>
-      <c r="AH10" t="s">
-        <v>150</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300274</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.27</v>
@@ -1713,7 +1875,7 @@
         <v>1104596.79</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1754,8 +1916,23 @@
       <c r="W11">
         <v>-0.26</v>
       </c>
+      <c r="X11">
+        <v>2.05</v>
+      </c>
+      <c r="Y11">
+        <v>149.32</v>
+      </c>
+      <c r="Z11">
+        <v>8.43</v>
+      </c>
       <c r="AC11" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1763,22 +1940,25 @@
       <c r="AG11">
         <v>0.4234485328197479</v>
       </c>
-      <c r="AH11" t="s">
-        <v>150</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300277</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>1.28</v>
@@ -1796,7 +1976,7 @@
         <v>62838.48</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -1837,8 +2017,23 @@
       <c r="W12">
         <v>-1.35</v>
       </c>
+      <c r="X12">
+        <v>-4.6</v>
+      </c>
+      <c r="Y12">
+        <v>15.1</v>
+      </c>
+      <c r="Z12">
+        <v>-4.43</v>
+      </c>
       <c r="AC12" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1846,22 +2041,25 @@
       <c r="AG12">
         <v>-0.7759725451469421</v>
       </c>
-      <c r="AH12" t="s">
-        <v>150</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300290</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>2.7</v>
@@ -1879,7 +2077,7 @@
         <v>63103.6</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1920,8 +2118,23 @@
       <c r="W13">
         <v>0.2</v>
       </c>
+      <c r="X13">
+        <v>16.73</v>
+      </c>
+      <c r="Y13">
+        <v>31.99</v>
+      </c>
+      <c r="Z13">
+        <v>17.01</v>
+      </c>
       <c r="AC13" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1929,22 +2142,25 @@
       <c r="AG13">
         <v>3.783142805099487</v>
       </c>
-      <c r="AH13" t="s">
-        <v>150</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300308</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-3.28</v>
@@ -1962,7 +2178,7 @@
         <v>1350948.56</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K14">
         <v>44</v>
@@ -2003,8 +2219,23 @@
       <c r="W14">
         <v>-0.09</v>
       </c>
+      <c r="X14">
+        <v>-3.33</v>
+      </c>
+      <c r="Y14">
+        <v>419.97</v>
+      </c>
+      <c r="Z14">
+        <v>-1.3</v>
+      </c>
       <c r="AC14" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2012,22 +2243,25 @@
       <c r="AG14">
         <v>-3.301260471343994</v>
       </c>
-      <c r="AH14" t="s">
-        <v>150</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300324</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>6.75</v>
@@ -2045,7 +2279,7 @@
         <v>174887.97</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -2086,8 +2320,23 @@
       <c r="W15">
         <v>0.39</v>
       </c>
+      <c r="X15">
+        <v>1.54</v>
+      </c>
+      <c r="Y15">
+        <v>7.48</v>
+      </c>
+      <c r="Z15">
+        <v>5.06</v>
+      </c>
       <c r="AC15" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2095,22 +2344,25 @@
       <c r="AG15">
         <v>4.35769510269165</v>
       </c>
-      <c r="AH15" t="s">
-        <v>150</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300409</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.34</v>
@@ -2128,7 +2380,7 @@
         <v>239018.09</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K16">
         <v>20</v>
@@ -2169,8 +2421,23 @@
       <c r="W16">
         <v>-1.24</v>
       </c>
+      <c r="X16">
+        <v>-2.44</v>
+      </c>
+      <c r="Y16">
+        <v>27.09</v>
+      </c>
+      <c r="Z16">
+        <v>1.08</v>
+      </c>
       <c r="AC16" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2178,22 +2445,25 @@
       <c r="AG16">
         <v>173.4377288818359</v>
       </c>
-      <c r="AH16" t="s">
-        <v>150</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300438</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>5.94</v>
@@ -2211,7 +2481,7 @@
         <v>136868.19</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2252,8 +2522,23 @@
       <c r="W17">
         <v>0.42</v>
       </c>
+      <c r="X17">
+        <v>-1.55</v>
+      </c>
+      <c r="Y17">
+        <v>35.71</v>
+      </c>
+      <c r="Z17">
+        <v>3.81</v>
+      </c>
       <c r="AC17" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2261,22 +2546,25 @@
       <c r="AG17">
         <v>1.749608874320984</v>
       </c>
-      <c r="AH17" t="s">
-        <v>150</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300450</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-5.27</v>
@@ -2294,7 +2582,7 @@
         <v>1015007.95</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18">
         <v>11</v>
@@ -2335,8 +2623,23 @@
       <c r="W18">
         <v>-0.96</v>
       </c>
+      <c r="X18">
+        <v>1.44</v>
+      </c>
+      <c r="Y18">
+        <v>57.58</v>
+      </c>
+      <c r="Z18">
+        <v>1.09</v>
+      </c>
       <c r="AC18" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2344,22 +2647,25 @@
       <c r="AG18">
         <v>2.816673278808594</v>
       </c>
-      <c r="AH18" t="s">
-        <v>150</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300469</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-3.58</v>
@@ -2377,7 +2683,7 @@
         <v>71508.39</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K19">
         <v>17</v>
@@ -2418,8 +2724,23 @@
       <c r="W19">
         <v>-0.33</v>
       </c>
+      <c r="X19">
+        <v>13.83</v>
+      </c>
+      <c r="Y19">
+        <v>80.8</v>
+      </c>
+      <c r="Z19">
+        <v>16.8</v>
+      </c>
       <c r="AC19" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2427,22 +2748,25 @@
       <c r="AG19">
         <v>25.19952774047852</v>
       </c>
-      <c r="AH19" t="s">
-        <v>150</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300475</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>8.279999999999999</v>
@@ -2460,7 +2784,7 @@
         <v>307443.84</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -2501,8 +2825,23 @@
       <c r="W20">
         <v>0.57</v>
       </c>
+      <c r="X20">
+        <v>2.26</v>
+      </c>
+      <c r="Y20">
+        <v>78.8</v>
+      </c>
+      <c r="Z20">
+        <v>12.81</v>
+      </c>
       <c r="AC20" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2510,22 +2849,25 @@
       <c r="AG20">
         <v>6.631302356719971</v>
       </c>
-      <c r="AH20" t="s">
-        <v>150</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300476</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0.48</v>
@@ -2543,7 +2885,7 @@
         <v>1528559.51</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K21">
         <v>68</v>
@@ -2584,8 +2926,23 @@
       <c r="W21">
         <v>-0.14</v>
       </c>
+      <c r="X21">
+        <v>-2.95</v>
+      </c>
+      <c r="Y21">
+        <v>339</v>
+      </c>
+      <c r="Z21">
+        <v>-0.18</v>
+      </c>
       <c r="AC21" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2593,22 +2950,25 @@
       <c r="AG21">
         <v>7.422595024108887</v>
       </c>
-      <c r="AH21" t="s">
-        <v>150</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300502</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-4.99</v>
@@ -2626,7 +2986,7 @@
         <v>1428924.83</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2667,8 +3027,23 @@
       <c r="W22">
         <v>-0.3</v>
       </c>
+      <c r="X22">
+        <v>-2.15</v>
+      </c>
+      <c r="Y22">
+        <v>355.98</v>
+      </c>
+      <c r="Z22">
+        <v>-1.37</v>
+      </c>
       <c r="AC22" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2676,22 +3051,25 @@
       <c r="AG22">
         <v>0.4760922491550446</v>
       </c>
-      <c r="AH22" t="s">
-        <v>150</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300528</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>2.74</v>
@@ -2709,7 +3087,7 @@
         <v>130597.66</v>
       </c>
       <c r="J23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2750,8 +3128,23 @@
       <c r="W23">
         <v>-0.21</v>
       </c>
+      <c r="X23">
+        <v>10.65</v>
+      </c>
+      <c r="Y23">
+        <v>33.45</v>
+      </c>
+      <c r="Z23">
+        <v>25.7</v>
+      </c>
       <c r="AC23" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2759,22 +3152,25 @@
       <c r="AG23">
         <v>-1.272437214851379</v>
       </c>
-      <c r="AH23" t="s">
-        <v>150</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300539</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-3.63</v>
@@ -2792,7 +3188,7 @@
         <v>61520.27</v>
       </c>
       <c r="J24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2833,8 +3229,23 @@
       <c r="W24">
         <v>-1.27</v>
       </c>
+      <c r="X24">
+        <v>-0.8</v>
+      </c>
+      <c r="Y24">
+        <v>38.43</v>
+      </c>
+      <c r="Z24">
+        <v>2.02</v>
+      </c>
       <c r="AC24" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2842,22 +3253,25 @@
       <c r="AG24">
         <v>0.8518012762069702</v>
       </c>
-      <c r="AH24" t="s">
-        <v>150</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300568</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-0.6899999999999999</v>
@@ -2875,7 +3289,7 @@
         <v>128466.18</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2916,8 +3330,23 @@
       <c r="W25">
         <v>-0.96</v>
       </c>
+      <c r="X25">
+        <v>1.83</v>
+      </c>
+      <c r="Y25">
+        <v>15.05</v>
+      </c>
+      <c r="Z25">
+        <v>4.22</v>
+      </c>
       <c r="AC25" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2925,22 +3354,25 @@
       <c r="AG25">
         <v>0.8524407148361206</v>
       </c>
-      <c r="AH25" t="s">
-        <v>150</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300604</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>4.3</v>
@@ -2958,7 +3390,7 @@
         <v>213658</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K26">
         <v>13</v>
@@ -2999,8 +3431,23 @@
       <c r="W26">
         <v>0.21</v>
       </c>
+      <c r="X26">
+        <v>-2.17</v>
+      </c>
+      <c r="Y26">
+        <v>62.37</v>
+      </c>
+      <c r="Z26">
+        <v>1.18</v>
+      </c>
       <c r="AC26" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3008,22 +3455,25 @@
       <c r="AG26">
         <v>7.247406005859375</v>
       </c>
-      <c r="AH26" t="s">
-        <v>150</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300618</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>5.34</v>
@@ -3041,7 +3491,7 @@
         <v>155628.4</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -3082,8 +3532,23 @@
       <c r="W27">
         <v>0.01</v>
       </c>
+      <c r="X27">
+        <v>-3.9</v>
+      </c>
+      <c r="Y27">
+        <v>53.49</v>
+      </c>
+      <c r="Z27">
+        <v>-4.26</v>
+      </c>
       <c r="AC27" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3091,22 +3556,25 @@
       <c r="AG27">
         <v>6.536513328552246</v>
       </c>
-      <c r="AH27" t="s">
-        <v>150</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300619</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>0.05</v>
@@ -3124,7 +3592,7 @@
         <v>58313.69</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3165,8 +3633,23 @@
       <c r="W28">
         <v>-0.06</v>
       </c>
+      <c r="X28">
+        <v>-5.95</v>
+      </c>
+      <c r="Y28">
+        <v>39</v>
+      </c>
+      <c r="Z28">
+        <v>5.12</v>
+      </c>
       <c r="AC28" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3174,22 +3657,25 @@
       <c r="AG28">
         <v>4.368550777435303</v>
       </c>
-      <c r="AH28" t="s">
-        <v>150</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300680</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>3.65</v>
@@ -3207,7 +3693,7 @@
         <v>100507.18</v>
       </c>
       <c r="J29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3248,8 +3734,23 @@
       <c r="W29">
         <v>-0.27</v>
       </c>
+      <c r="X29">
+        <v>8.41</v>
+      </c>
+      <c r="Y29">
+        <v>63.65</v>
+      </c>
+      <c r="Z29">
+        <v>16.83</v>
+      </c>
       <c r="AC29" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3257,22 +3758,25 @@
       <c r="AG29">
         <v>0.5859298706054688</v>
       </c>
-      <c r="AH29" t="s">
-        <v>150</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300701</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-3.15</v>
@@ -3290,7 +3794,7 @@
         <v>40937.01</v>
       </c>
       <c r="J30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3331,8 +3835,23 @@
       <c r="W30">
         <v>-0.68</v>
       </c>
+      <c r="X30">
+        <v>9.77</v>
+      </c>
+      <c r="Y30">
+        <v>15.11</v>
+      </c>
+      <c r="Z30">
+        <v>9.26</v>
+      </c>
       <c r="AC30" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3340,22 +3859,25 @@
       <c r="AG30">
         <v>4.522340774536133</v>
       </c>
-      <c r="AH30" t="s">
-        <v>150</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300757</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>9.66</v>
@@ -3373,7 +3895,7 @@
         <v>288016.13</v>
       </c>
       <c r="J31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K31">
         <v>15</v>
@@ -3414,8 +3936,23 @@
       <c r="W31">
         <v>0.34</v>
       </c>
+      <c r="X31">
+        <v>-2.83</v>
+      </c>
+      <c r="Y31">
+        <v>295.23</v>
+      </c>
+      <c r="Z31">
+        <v>1.59</v>
+      </c>
       <c r="AC31" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3423,22 +3960,25 @@
       <c r="AG31">
         <v>-3.788190603256226</v>
       </c>
-      <c r="AH31" t="s">
-        <v>150</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300790</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>0.34</v>
@@ -3456,7 +3996,7 @@
         <v>71558.39999999999</v>
       </c>
       <c r="J32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K32">
         <v>9</v>
@@ -3497,8 +4037,23 @@
       <c r="W32">
         <v>0.45</v>
       </c>
+      <c r="X32">
+        <v>-2.91</v>
+      </c>
+      <c r="Y32">
+        <v>35.34</v>
+      </c>
+      <c r="Z32">
+        <v>-0.79</v>
+      </c>
       <c r="AC32" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3506,22 +4061,25 @@
       <c r="AG32">
         <v>3.016138553619385</v>
       </c>
-      <c r="AH32" t="s">
-        <v>150</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300852</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>4.88</v>
@@ -3539,7 +4097,7 @@
         <v>97127.44</v>
       </c>
       <c r="J33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3580,8 +4138,23 @@
       <c r="W33">
         <v>0.45</v>
       </c>
+      <c r="X33">
+        <v>-2.41</v>
+      </c>
+      <c r="Y33">
+        <v>46.49</v>
+      </c>
+      <c r="Z33">
+        <v>0.09</v>
+      </c>
       <c r="AC33" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3589,22 +4162,25 @@
       <c r="AG33">
         <v>1.289618611335754</v>
       </c>
-      <c r="AH33" t="s">
-        <v>150</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300857</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-0.67</v>
@@ -3622,7 +4198,7 @@
         <v>230904.47</v>
       </c>
       <c r="J34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K34">
         <v>16</v>
@@ -3663,8 +4239,23 @@
       <c r="W34">
         <v>-0.2</v>
       </c>
+      <c r="X34">
+        <v>0.37</v>
+      </c>
+      <c r="Y34">
+        <v>141.79</v>
+      </c>
+      <c r="Z34">
+        <v>4.16</v>
+      </c>
       <c r="AC34" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3672,22 +4263,25 @@
       <c r="AG34">
         <v>1.757585525512695</v>
       </c>
-      <c r="AH34" t="s">
-        <v>150</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300859</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>2.6</v>
@@ -3705,7 +4299,7 @@
         <v>52143.9</v>
       </c>
       <c r="J35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -3746,8 +4340,23 @@
       <c r="W35">
         <v>0.29</v>
       </c>
+      <c r="X35">
+        <v>5.34</v>
+      </c>
+      <c r="Y35">
+        <v>52.8</v>
+      </c>
+      <c r="Z35">
+        <v>8.6</v>
+      </c>
       <c r="AC35" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3755,22 +4364,25 @@
       <c r="AG35">
         <v>4.878739833831787</v>
       </c>
-      <c r="AH35" t="s">
-        <v>150</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300918</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-3.12</v>
@@ -3788,7 +4400,7 @@
         <v>59585.06</v>
       </c>
       <c r="J36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3829,8 +4441,23 @@
       <c r="W36">
         <v>-0.18</v>
       </c>
+      <c r="X36">
+        <v>-1.83</v>
+      </c>
+      <c r="Y36">
+        <v>25.15</v>
+      </c>
+      <c r="Z36">
+        <v>2.44</v>
+      </c>
       <c r="AC36" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3838,22 +4465,25 @@
       <c r="AG36">
         <v>194.8388061523438</v>
       </c>
-      <c r="AH36" t="s">
-        <v>150</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300990</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>1.09</v>
@@ -3871,7 +4501,7 @@
         <v>42150.95</v>
       </c>
       <c r="J37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3912,8 +4542,23 @@
       <c r="W37">
         <v>-0.23</v>
       </c>
+      <c r="X37">
+        <v>4.95</v>
+      </c>
+      <c r="Y37">
+        <v>85.44</v>
+      </c>
+      <c r="Z37">
+        <v>4.36</v>
+      </c>
       <c r="AC37" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3921,22 +4566,25 @@
       <c r="AG37">
         <v>3.001576662063599</v>
       </c>
-      <c r="AH37" t="s">
-        <v>150</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301150</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-5.96</v>
@@ -3954,7 +4602,7 @@
         <v>68217</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K38">
         <v>9</v>
@@ -3995,8 +4643,23 @@
       <c r="W38">
         <v>-0.82</v>
       </c>
+      <c r="X38">
+        <v>20</v>
+      </c>
+      <c r="Y38">
+        <v>43.92</v>
+      </c>
+      <c r="Z38">
+        <v>17.06</v>
+      </c>
       <c r="AC38" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4004,22 +4667,25 @@
       <c r="AG38">
         <v>15.978684425354</v>
       </c>
-      <c r="AH38" t="s">
-        <v>150</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301165</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>3.48</v>
@@ -4037,7 +4703,7 @@
         <v>106247.24</v>
       </c>
       <c r="J39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4078,8 +4744,23 @@
       <c r="W39">
         <v>0.65</v>
       </c>
+      <c r="X39">
+        <v>1.14</v>
+      </c>
+      <c r="Y39">
+        <v>95.55</v>
+      </c>
+      <c r="Z39">
+        <v>2.97</v>
+      </c>
       <c r="AC39" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4087,22 +4768,25 @@
       <c r="AG39">
         <v>0.7585590481758118</v>
       </c>
-      <c r="AH39" t="s">
-        <v>150</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301307</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>2.51</v>
@@ -4120,7 +4804,7 @@
         <v>48202.89</v>
       </c>
       <c r="J40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4161,8 +4845,23 @@
       <c r="W40">
         <v>0.2</v>
       </c>
+      <c r="X40">
+        <v>2.78</v>
+      </c>
+      <c r="Y40">
+        <v>35.87</v>
+      </c>
+      <c r="Z40">
+        <v>11.36</v>
+      </c>
       <c r="AC40" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4170,22 +4869,25 @@
       <c r="AG40">
         <v>1.101132273674011</v>
       </c>
-      <c r="AH40" t="s">
-        <v>150</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301377</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>7.41</v>
@@ -4203,7 +4905,7 @@
         <v>85698.89</v>
       </c>
       <c r="J41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -4244,8 +4946,23 @@
       <c r="W41">
         <v>1.63</v>
       </c>
+      <c r="X41">
+        <v>-2.38</v>
+      </c>
+      <c r="Y41">
+        <v>89.38</v>
+      </c>
+      <c r="Z41">
+        <v>-2.61</v>
+      </c>
       <c r="AC41" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4253,22 +4970,25 @@
       <c r="AG41">
         <v>5.015171527862549</v>
       </c>
-      <c r="AH41" t="s">
-        <v>150</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301389</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>3.39</v>
@@ -4286,7 +5006,7 @@
         <v>123796.61</v>
       </c>
       <c r="J42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4327,8 +5047,23 @@
       <c r="W42">
         <v>1.05</v>
       </c>
+      <c r="X42">
+        <v>-2.64</v>
+      </c>
+      <c r="Y42">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="Z42">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="AC42" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4336,22 +5071,25 @@
       <c r="AG42">
         <v>3.891779184341431</v>
       </c>
-      <c r="AH42" t="s">
-        <v>150</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301398</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-3.2</v>
@@ -4369,7 +5107,7 @@
         <v>40334.95</v>
       </c>
       <c r="J43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4410,8 +5148,23 @@
       <c r="W43">
         <v>-0.84</v>
       </c>
+      <c r="X43">
+        <v>1.84</v>
+      </c>
+      <c r="Y43">
+        <v>53.89</v>
+      </c>
+      <c r="Z43">
+        <v>1.3</v>
+      </c>
       <c r="AC43" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4419,22 +5172,25 @@
       <c r="AG43">
         <v>-1.212225317955017</v>
       </c>
-      <c r="AH43" t="s">
-        <v>150</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301413</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>1.6</v>
@@ -4452,7 +5208,7 @@
         <v>53006.03</v>
       </c>
       <c r="J44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K44">
         <v>16</v>
@@ -4493,8 +5249,23 @@
       <c r="W44">
         <v>0.44</v>
       </c>
+      <c r="X44">
+        <v>5.44</v>
+      </c>
+      <c r="Y44">
+        <v>155</v>
+      </c>
+      <c r="Z44">
+        <v>5.89</v>
+      </c>
       <c r="AC44" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4502,22 +5273,25 @@
       <c r="AG44">
         <v>0.006147845182567835</v>
       </c>
-      <c r="AH44" t="s">
-        <v>150</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301487</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>15.84</v>
@@ -4535,7 +5309,7 @@
         <v>129986.73</v>
       </c>
       <c r="J45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4576,8 +5350,23 @@
       <c r="W45">
         <v>1.12</v>
       </c>
+      <c r="X45">
+        <v>-1.92</v>
+      </c>
+      <c r="Y45">
+        <v>29.05</v>
+      </c>
+      <c r="Z45">
+        <v>-0.21</v>
+      </c>
       <c r="AC45" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4585,22 +5374,25 @@
       <c r="AG45">
         <v>15.37093448638916</v>
       </c>
-      <c r="AH45" t="s">
-        <v>150</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301488</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>12.25</v>
@@ -4618,7 +5410,7 @@
         <v>100959.8</v>
       </c>
       <c r="J46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K46">
         <v>13</v>
@@ -4659,8 +5451,23 @@
       <c r="W46">
         <v>0.42</v>
       </c>
+      <c r="X46">
+        <v>11.96</v>
+      </c>
+      <c r="Y46">
+        <v>190.94</v>
+      </c>
+      <c r="Z46">
+        <v>15.69</v>
+      </c>
       <c r="AC46" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4668,22 +5475,25 @@
       <c r="AG46">
         <v>3.014286994934082</v>
       </c>
-      <c r="AH46" t="s">
-        <v>150</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301489</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-1.24</v>
@@ -4701,7 +5511,7 @@
         <v>63825.7</v>
       </c>
       <c r="J47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -4742,8 +5552,23 @@
       <c r="W47">
         <v>0.02</v>
       </c>
+      <c r="X47">
+        <v>-1.32</v>
+      </c>
+      <c r="Y47">
+        <v>219.83</v>
+      </c>
+      <c r="Z47">
+        <v>-1.65</v>
+      </c>
       <c r="AC47" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4751,22 +5576,25 @@
       <c r="AG47">
         <v>51.63056945800781</v>
       </c>
-      <c r="AH47" t="s">
-        <v>150</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301538</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-4.85</v>
@@ -4784,7 +5612,7 @@
         <v>34893.16</v>
       </c>
       <c r="J48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K48">
         <v>5</v>
@@ -4825,8 +5653,23 @@
       <c r="W48">
         <v>-0.21</v>
       </c>
+      <c r="X48">
+        <v>-0.65</v>
+      </c>
+      <c r="Y48">
+        <v>96.5</v>
+      </c>
+      <c r="Z48">
+        <v>3.18</v>
+      </c>
       <c r="AC48" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4834,22 +5677,25 @@
       <c r="AG48">
         <v>-1.038869500160217</v>
       </c>
-      <c r="AH48" t="s">
-        <v>150</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301617</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-1.26</v>
@@ -4867,7 +5713,7 @@
         <v>46737.64</v>
       </c>
       <c r="J49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K49">
         <v>16</v>
@@ -4908,8 +5754,23 @@
       <c r="W49">
         <v>-0.8</v>
       </c>
+      <c r="X49">
+        <v>-2.67</v>
+      </c>
+      <c r="Y49">
+        <v>84.62</v>
+      </c>
+      <c r="Z49">
+        <v>2.03</v>
+      </c>
       <c r="AC49" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4917,22 +5778,25 @@
       <c r="AG49">
         <v>3.014654874801636</v>
       </c>
-      <c r="AH49" t="s">
-        <v>150</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688005</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>2.13</v>
@@ -4950,7 +5814,7 @@
         <v>88618.31</v>
       </c>
       <c r="J50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K50">
         <v>4</v>
@@ -4991,8 +5855,23 @@
       <c r="W50">
         <v>-0.04</v>
       </c>
+      <c r="X50">
+        <v>-0.98</v>
+      </c>
+      <c r="Y50">
+        <v>31.7</v>
+      </c>
+      <c r="Z50">
+        <v>6.7</v>
+      </c>
       <c r="AC50" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5000,22 +5879,25 @@
       <c r="AG50">
         <v>1.4946049451828</v>
       </c>
-      <c r="AH50" t="s">
-        <v>150</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688006</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-4.22</v>
@@ -5033,7 +5915,7 @@
         <v>78773.92999999999</v>
       </c>
       <c r="J51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K51">
         <v>10</v>
@@ -5074,8 +5956,23 @@
       <c r="W51">
         <v>-0.55</v>
       </c>
+      <c r="X51">
+        <v>1.68</v>
+      </c>
+      <c r="Y51">
+        <v>38.7</v>
+      </c>
+      <c r="Z51">
+        <v>1.02</v>
+      </c>
       <c r="AC51" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5083,22 +5980,25 @@
       <c r="AG51">
         <v>2.738971948623657</v>
       </c>
-      <c r="AH51" t="s">
-        <v>150</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688028</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>14.24</v>
@@ -5116,7 +6016,7 @@
         <v>70172.55</v>
       </c>
       <c r="J52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K52">
         <v>5</v>
@@ -5157,8 +6057,23 @@
       <c r="W52">
         <v>0.13</v>
       </c>
+      <c r="X52">
+        <v>4</v>
+      </c>
+      <c r="Y52">
+        <v>45.67</v>
+      </c>
+      <c r="Z52">
+        <v>6.61</v>
+      </c>
       <c r="AC52" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5166,22 +6081,25 @@
       <c r="AG52">
         <v>1.192038893699646</v>
       </c>
-      <c r="AH52" t="s">
-        <v>150</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688041</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>1.01</v>
@@ -5199,7 +6117,7 @@
         <v>1276684.39</v>
       </c>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5240,8 +6158,23 @@
       <c r="W53">
         <v>-0.09</v>
       </c>
+      <c r="X53">
+        <v>5.22</v>
+      </c>
+      <c r="Y53">
+        <v>241.88</v>
+      </c>
+      <c r="Z53">
+        <v>8.43</v>
+      </c>
       <c r="AC53" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5249,22 +6182,25 @@
       <c r="AG53">
         <v>4.819531917572021</v>
       </c>
-      <c r="AH53" t="s">
-        <v>150</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688110</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>10.15</v>
@@ -5282,7 +6218,7 @@
         <v>265162.44</v>
       </c>
       <c r="J54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5323,8 +6259,23 @@
       <c r="W54">
         <v>0.16</v>
       </c>
+      <c r="X54">
+        <v>6.67</v>
+      </c>
+      <c r="Y54">
+        <v>118.79</v>
+      </c>
+      <c r="Z54">
+        <v>7.86</v>
+      </c>
       <c r="AC54" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5332,22 +6283,25 @@
       <c r="AG54">
         <v>-4.963728904724121</v>
       </c>
-      <c r="AH54" t="s">
-        <v>150</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688135</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>4.91</v>
@@ -5365,7 +6319,7 @@
         <v>67923.87</v>
       </c>
       <c r="J55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K55">
         <v>9</v>
@@ -5406,8 +6360,23 @@
       <c r="W55">
         <v>-0.27</v>
       </c>
+      <c r="X55">
+        <v>-3.34</v>
+      </c>
+      <c r="Y55">
+        <v>29.82</v>
+      </c>
+      <c r="Z55">
+        <v>1.95</v>
+      </c>
       <c r="AC55" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5415,22 +6384,25 @@
       <c r="AG55">
         <v>1.786755800247192</v>
       </c>
-      <c r="AH55" t="s">
-        <v>150</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688141</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>4.69</v>
@@ -5448,7 +6420,7 @@
         <v>57530.87</v>
       </c>
       <c r="J56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K56">
         <v>8</v>
@@ -5489,8 +6461,23 @@
       <c r="W56">
         <v>0.63</v>
       </c>
+      <c r="X56">
+        <v>-2.8</v>
+      </c>
+      <c r="Y56">
+        <v>58</v>
+      </c>
+      <c r="Z56">
+        <v>7.89</v>
+      </c>
       <c r="AC56" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5498,22 +6485,25 @@
       <c r="AG56">
         <v>2.257376194000244</v>
       </c>
-      <c r="AH56" t="s">
-        <v>151</v>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688167</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>9.69</v>
@@ -5531,7 +6521,7 @@
         <v>165518.36</v>
       </c>
       <c r="J57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K57">
         <v>6</v>
@@ -5572,8 +6562,23 @@
       <c r="W57">
         <v>0.21</v>
       </c>
+      <c r="X57">
+        <v>1.58</v>
+      </c>
+      <c r="Y57">
+        <v>165.38</v>
+      </c>
+      <c r="Z57">
+        <v>4.01</v>
+      </c>
       <c r="AC57" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5581,22 +6586,25 @@
       <c r="AG57">
         <v>2.236381530761719</v>
       </c>
-      <c r="AH57" t="s">
-        <v>150</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688195</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>5.48</v>
@@ -5614,7 +6622,7 @@
         <v>160020.49</v>
       </c>
       <c r="J58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K58">
         <v>20</v>
@@ -5655,8 +6663,23 @@
       <c r="W58">
         <v>-0.12</v>
       </c>
+      <c r="X58">
+        <v>6.81</v>
+      </c>
+      <c r="Y58">
+        <v>115.88</v>
+      </c>
+      <c r="Z58">
+        <v>8.300000000000001</v>
+      </c>
       <c r="AC58" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5664,22 +6687,25 @@
       <c r="AG58">
         <v>1.697827100753784</v>
       </c>
-      <c r="AH58" t="s">
-        <v>150</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688202</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-0.23</v>
@@ -5697,7 +6723,7 @@
         <v>56357.51</v>
       </c>
       <c r="J59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -5738,8 +6764,23 @@
       <c r="W59">
         <v>0.02</v>
       </c>
+      <c r="X59">
+        <v>3.12</v>
+      </c>
+      <c r="Y59">
+        <v>84.7</v>
+      </c>
+      <c r="Z59">
+        <v>10.03</v>
+      </c>
       <c r="AC59" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5747,22 +6788,25 @@
       <c r="AG59">
         <v>5.321574687957764</v>
       </c>
-      <c r="AH59" t="s">
-        <v>150</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688228</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>13.3</v>
@@ -5780,7 +6824,7 @@
         <v>86982.05</v>
       </c>
       <c r="J60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K60">
         <v>3</v>
@@ -5821,8 +6865,23 @@
       <c r="W60">
         <v>-0.02</v>
       </c>
+      <c r="X60">
+        <v>13.71</v>
+      </c>
+      <c r="Y60">
+        <v>188.03</v>
+      </c>
+      <c r="Z60">
+        <v>17.7</v>
+      </c>
       <c r="AC60" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5830,22 +6889,25 @@
       <c r="AG60">
         <v>1.590808987617493</v>
       </c>
-      <c r="AH60" t="s">
-        <v>150</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688234</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>4.51</v>
@@ -5863,7 +6925,7 @@
         <v>193862.91</v>
       </c>
       <c r="J61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K61">
         <v>4</v>
@@ -5904,8 +6966,23 @@
       <c r="W61">
         <v>0.13</v>
       </c>
+      <c r="X61">
+        <v>-1.94</v>
+      </c>
+      <c r="Y61">
+        <v>94.97</v>
+      </c>
+      <c r="Z61">
+        <v>0.98</v>
+      </c>
       <c r="AC61" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5913,22 +6990,25 @@
       <c r="AG61">
         <v>3.675896167755127</v>
       </c>
-      <c r="AH61" t="s">
-        <v>150</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688256</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>1.23</v>
@@ -5946,7 +7026,7 @@
         <v>1530275.84</v>
       </c>
       <c r="J62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -5987,8 +7067,23 @@
       <c r="W62">
         <v>0.03</v>
       </c>
+      <c r="X62">
+        <v>-3.23</v>
+      </c>
+      <c r="Y62">
+        <v>1529.4</v>
+      </c>
+      <c r="Z62">
+        <v>8.92</v>
+      </c>
       <c r="AC62" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -5996,22 +7091,25 @@
       <c r="AG62">
         <v>0.4104675948619843</v>
       </c>
-      <c r="AH62" t="s">
-        <v>150</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688331</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-2.15</v>
@@ -6029,7 +7127,7 @@
         <v>51574.08</v>
       </c>
       <c r="J63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -6070,8 +7168,23 @@
       <c r="W63">
         <v>-0.02</v>
       </c>
+      <c r="X63">
+        <v>-1.79</v>
+      </c>
+      <c r="Y63">
+        <v>109.99</v>
+      </c>
+      <c r="Z63">
+        <v>2.03</v>
+      </c>
       <c r="AC63" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6079,22 +7192,25 @@
       <c r="AG63">
         <v>15.06075572967529</v>
       </c>
-      <c r="AH63" t="s">
-        <v>150</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688343</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>4.07</v>
@@ -6112,7 +7228,7 @@
         <v>185736.17</v>
       </c>
       <c r="J64" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6153,8 +7269,23 @@
       <c r="W64">
         <v>0.2</v>
       </c>
+      <c r="X64">
+        <v>-2.9</v>
+      </c>
+      <c r="Y64">
+        <v>90.73</v>
+      </c>
+      <c r="Z64">
+        <v>-0.27</v>
+      </c>
       <c r="AC64" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6162,22 +7293,25 @@
       <c r="AG64">
         <v>2.224753141403198</v>
       </c>
-      <c r="AH64" t="s">
-        <v>150</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688347</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>4.25</v>
@@ -6195,7 +7329,7 @@
         <v>164264.6</v>
       </c>
       <c r="J65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -6236,8 +7370,23 @@
       <c r="W65">
         <v>0.06</v>
       </c>
+      <c r="X65">
+        <v>2.75</v>
+      </c>
+      <c r="Y65">
+        <v>78.58</v>
+      </c>
+      <c r="Z65">
+        <v>3.26</v>
+      </c>
       <c r="AC65" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6245,22 +7394,25 @@
       <c r="AG65">
         <v>7.512736320495605</v>
       </c>
-      <c r="AH65" t="s">
-        <v>150</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688388</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-3.95</v>
@@ -6278,7 +7430,7 @@
         <v>128484.8</v>
       </c>
       <c r="J66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K66">
         <v>9</v>
@@ -6319,8 +7471,23 @@
       <c r="W66">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X66">
+        <v>-2.81</v>
+      </c>
+      <c r="Y66">
+        <v>33.79</v>
+      </c>
+      <c r="Z66">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="AC66" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6328,22 +7495,25 @@
       <c r="AG66">
         <v>1.864041924476624</v>
       </c>
-      <c r="AH66" t="s">
-        <v>150</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688411</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-0.72</v>
@@ -6361,7 +7531,7 @@
         <v>56981.29</v>
       </c>
       <c r="J67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K67">
         <v>9</v>
@@ -6402,8 +7572,23 @@
       <c r="W67">
         <v>0.28</v>
       </c>
+      <c r="X67">
+        <v>8.65</v>
+      </c>
+      <c r="Y67">
+        <v>219</v>
+      </c>
+      <c r="Z67">
+        <v>24.21</v>
+      </c>
       <c r="AC67" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6411,22 +7596,25 @@
       <c r="AG67">
         <v>1.443167448043823</v>
       </c>
-      <c r="AH67" t="s">
-        <v>150</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688498</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-1.84</v>
@@ -6444,7 +7632,7 @@
         <v>111345.1</v>
       </c>
       <c r="J68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -6485,8 +7673,23 @@
       <c r="W68">
         <v>-0.35</v>
       </c>
+      <c r="X68">
+        <v>-2.3</v>
+      </c>
+      <c r="Y68">
+        <v>380</v>
+      </c>
+      <c r="Z68">
+        <v>0.03</v>
+      </c>
       <c r="AC68" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6494,22 +7697,25 @@
       <c r="AG68">
         <v>7.669444561004639</v>
       </c>
-      <c r="AH68" t="s">
-        <v>150</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688499</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-2.51</v>
@@ -6527,7 +7733,7 @@
         <v>93048.06</v>
       </c>
       <c r="J69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K69">
         <v>6</v>
@@ -6568,8 +7774,23 @@
       <c r="W69">
         <v>-1.24</v>
       </c>
+      <c r="X69">
+        <v>-1.64</v>
+      </c>
+      <c r="Y69">
+        <v>75.79000000000001</v>
+      </c>
+      <c r="Z69">
+        <v>2.28</v>
+      </c>
       <c r="AC69" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6577,22 +7798,25 @@
       <c r="AG69">
         <v>-0.2245260775089264</v>
       </c>
-      <c r="AH69" t="s">
-        <v>150</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688521</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>20</v>
@@ -6610,7 +7834,7 @@
         <v>670747.55</v>
       </c>
       <c r="J70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K70">
         <v>8</v>
@@ -6651,8 +7875,23 @@
       <c r="W70">
         <v>0.26</v>
       </c>
+      <c r="X70">
+        <v>-1.25</v>
+      </c>
+      <c r="Y70">
+        <v>200</v>
+      </c>
+      <c r="Z70">
+        <v>8.93</v>
+      </c>
       <c r="AC70" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
       </c>
       <c r="AF70">
         <v>1</v>
@@ -6660,22 +7899,25 @@
       <c r="AG70">
         <v>14.44746971130371</v>
       </c>
-      <c r="AH70" t="s">
-        <v>151</v>
+      <c r="AH70">
+        <v>1</v>
+      </c>
+      <c r="AI70">
+        <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688559</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-1.59</v>
@@ -6693,7 +7935,7 @@
         <v>66665.84</v>
       </c>
       <c r="J71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K71">
         <v>6</v>
@@ -6734,8 +7976,23 @@
       <c r="W71">
         <v>-0.7</v>
       </c>
+      <c r="X71">
+        <v>-0.77</v>
+      </c>
+      <c r="Y71">
+        <v>41.57</v>
+      </c>
+      <c r="Z71">
+        <v>1.51</v>
+      </c>
       <c r="AC71" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6743,22 +8000,25 @@
       <c r="AG71">
         <v>1.817438960075378</v>
       </c>
-      <c r="AH71" t="s">
-        <v>150</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688629</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>5.78</v>
@@ -6776,7 +8036,7 @@
         <v>143315.48</v>
       </c>
       <c r="J72" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -6817,8 +8077,23 @@
       <c r="W72">
         <v>0.85</v>
       </c>
+      <c r="X72">
+        <v>-1.47</v>
+      </c>
+      <c r="Y72">
+        <v>88.48999999999999</v>
+      </c>
+      <c r="Z72">
+        <v>1.57</v>
+      </c>
       <c r="AC72" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6826,22 +8101,25 @@
       <c r="AG72">
         <v>2.897374391555786</v>
       </c>
-      <c r="AH72" t="s">
-        <v>150</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688630</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-1.79</v>
@@ -6859,7 +8137,7 @@
         <v>78948.78999999999</v>
       </c>
       <c r="J73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -6900,8 +8178,23 @@
       <c r="W73">
         <v>-0.12</v>
       </c>
+      <c r="X73">
+        <v>-3.05</v>
+      </c>
+      <c r="Y73">
+        <v>152.6</v>
+      </c>
+      <c r="Z73">
+        <v>2.22</v>
+      </c>
       <c r="AC73" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6909,8 +8202,11 @@
       <c r="AG73">
         <v>-3.567691564559937</v>
       </c>
-      <c r="AH73" t="s">
-        <v>150</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
